--- a/08-10-25 to 08-16-25 Milwaukee Schedule.xlsx
+++ b/08-10-25 to 08-16-25 Milwaukee Schedule.xlsx
@@ -3320,7 +3320,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3431,9 +3431,21 @@
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
@@ -3535,11 +3547,7 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>5:30 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -3584,7 +3592,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:30 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3632,7 +3640,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3667,7 +3675,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1042, MANITOWOC</t>
+          <t xml:space="preserve">SCAN-ITEM LEVEL </t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3698,7 +3706,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>3509 DEWEY ST,  SUITE 100</t>
+          <t>AURORA OUTPATIENT RX #1042, MANITOWOC</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3741,7 +3749,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/a6JdzRvBpKR2</t>
+          <t>3509 DEWEY ST,  SUITE 100</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3778,7 +3786,11 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/a6JdzRvBpKR2</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
@@ -3804,21 +3816,9 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3843,9 +3843,21 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
@@ -3906,11 +3918,7 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
@@ -3943,7 +3951,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -3978,7 +3986,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1160, WAUKESHA</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4013,7 +4021,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>W231 N1440 CORPORATE CT, SUITE 101</t>
+          <t>AURORA OUTPATIENT RX #1160, WAUKESHA</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4048,7 +4056,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/aredhDF1mHF2</t>
+          <t>W231 N1440 CORPORATE CT, SUITE 101</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4083,7 +4091,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Can help at Pick 308 after if enough time</t>
+          <t>https://goo.gl/maps/aredhDF1mHF2</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4116,7 +4124,11 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Can help at Pick 308 after if enough time</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
@@ -4146,21 +4158,9 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Equip (no cars avail)</t>
-        </is>
-      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
@@ -4189,9 +4189,21 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Equip (no cars avail)</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">

--- a/08-10-25 to 08-16-25 Milwaukee Schedule.xlsx
+++ b/08-10-25 to 08-16-25 Milwaukee Schedule.xlsx
@@ -1593,14 +1593,10 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>w/ Carlie</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
@@ -1666,12 +1662,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Carlie</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
@@ -1737,7 +1733,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1813,7 +1809,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1888,7 +1884,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1951,7 +1947,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Louisa</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2020,7 +2016,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Louisa</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2092,7 +2088,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2152,9 +2148,21 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
@@ -2259,11 +2267,7 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -2309,7 +2313,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2360,7 +2364,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #612, BROOKFIELD</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2411,7 +2415,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>17235 W BLUEMOUND RD</t>
+          <t>OPEN PANTRY #612, BROOKFIELD</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2458,7 +2462,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/rSuXU3JVBHTGoDkk6</t>
+          <t>17235 W BLUEMOUND RD</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2515,7 +2519,11 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/rSuXU3JVBHTGoDkk6</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -2557,21 +2565,9 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
@@ -2619,15 +2615,19 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -2672,8 +2672,16 @@
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
@@ -2784,11 +2792,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4:45 AM MEET AT S RACINE COURT (HWYS 43 &amp; Y) </t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
@@ -2857,7 +2861,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t xml:space="preserve">4:45 AM MEET AT S RACINE COURT (HWYS 43 &amp; Y) </t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2920,7 +2924,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2988,7 +2992,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>CORK &amp; BOTTLE LIQUORS, JANESVILLE</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -3047,7 +3051,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>1418 W MEMORIAL DR</t>
+          <t>CORK &amp; BOTTLE LIQUORS, JANESVILLE</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3118,7 +3122,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/qwY1YCZsybsSQoNB6</t>
+          <t>1418 W MEMORIAL DR</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3177,7 +3181,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Check w/ Brookfield Pick n Save after finishing</t>
+          <t>https://maps.app.goo.gl/qwY1YCZsybsSQoNB6</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3234,7 +3238,11 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Check w/ Brookfield Pick n Save after finishing</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
@@ -3296,22 +3304,9 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van, Equip</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
@@ -3362,15 +3357,20 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van, Equip</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
@@ -3421,12 +3421,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3485,12 +3485,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3536,12 +3536,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>

--- a/08-10-25 to 08-16-25 Milwaukee Schedule.xlsx
+++ b/08-10-25 to 08-16-25 Milwaukee Schedule.xlsx
@@ -1028,7 +1028,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5:50 am meet at Grafton Park n Ride, Kim picking up</t>
+          <t>4:50 am meet at Grafton Park n Ride, Kim picking up</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>

--- a/08-10-25 to 08-16-25 Milwaukee Schedule.xlsx
+++ b/08-10-25 to 08-16-25 Milwaukee Schedule.xlsx
@@ -1749,7 +1749,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1900,10 +1900,16 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe,
+Rx</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
@@ -1963,14 +1969,13 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Driver,
-Santa Fe,
-Rx</t>
+          <t>@ Store,
+w/ Carlie</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -2032,13 +2037,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store,
-w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -2104,7 +2108,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2164,21 +2168,9 @@
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -2271,7 +2263,11 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -2321,7 +2317,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2372,7 +2368,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>PICK #308, WAUKESHA - SUNSET EAST</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2423,7 +2419,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>PICK #308, WAUKESHA - SUNSET EAST</t>
+          <t>220 E SUNSET DR</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2470,7 +2466,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>220 E SUNSET DR</t>
+          <t>https://goo.gl/maps/jn6VPu5yR4C2</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2529,7 +2525,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/jn6VPu5yR4C2</t>
+          <t>SET UP ON REG #5</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2570,11 +2566,7 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>SET UP ON REG #5</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
@@ -2629,9 +2621,21 @@
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
@@ -2686,17 +2690,18 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>After Aurora,
+Until noon</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
@@ -2745,18 +2750,17 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>After Aurora,
-Until noon</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
@@ -2797,12 +2801,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -2868,12 +2872,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -2931,12 +2935,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -2999,12 +3003,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3058,12 +3062,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3129,12 +3133,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3188,12 +3192,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3247,12 +3251,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3310,12 +3314,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3374,12 +3378,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3431,21 +3435,9 @@
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
@@ -3547,7 +3539,11 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>5:30 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -3592,7 +3588,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>5:30 AM OFFICE LEAVE TIME</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3640,7 +3636,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t xml:space="preserve">SCAN-ITEM LEVEL </t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3675,7 +3671,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">SCAN-ITEM LEVEL </t>
+          <t>AURORA OUTPATIENT RX #1042, MANITOWOC</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3706,7 +3702,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1042, MANITOWOC</t>
+          <t>3509 DEWEY ST,  SUITE 100</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3749,7 +3745,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>3509 DEWEY ST,  SUITE 100</t>
+          <t>https://goo.gl/maps/a6JdzRvBpKR2</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3786,11 +3782,7 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/a6JdzRvBpKR2</t>
-        </is>
-      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
@@ -3816,9 +3808,21 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3843,21 +3847,9 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
@@ -3918,7 +3910,11 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
@@ -3951,7 +3947,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -3986,7 +3982,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1160, WAUKESHA</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4021,7 +4017,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1160, WAUKESHA</t>
+          <t>W231 N1440 CORPORATE CT, SUITE 101</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4056,7 +4052,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>W231 N1440 CORPORATE CT, SUITE 101</t>
+          <t>https://goo.gl/maps/aredhDF1mHF2</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4091,7 +4087,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/aredhDF1mHF2</t>
+          <t>Can help at Pick 308 after if enough time</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4124,11 +4120,7 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Can help at Pick 308 after if enough time</t>
-        </is>
-      </c>
+      <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
@@ -4158,9 +4150,21 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Equip (no cars avail)</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
@@ -4189,21 +4193,9 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Equip (no cars avail)</t>
-        </is>
-      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">

--- a/08-10-25 to 08-16-25 Milwaukee Schedule.xlsx
+++ b/08-10-25 to 08-16-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:Y75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3213,10 +3213,14 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>w/ Carlie</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
@@ -3265,21 +3269,9 @@
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>w/ Carlie</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
@@ -3393,7 +3385,11 @@
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
@@ -3442,7 +3438,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3494,7 +3490,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1002, MILWAUKEE</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3549,7 +3545,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1002, MILWAUKEE</t>
+          <t>6901 W EDGERTON AVENUE</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3596,7 +3592,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>6901 W EDGERTON AVENUE</t>
+          <t>https://goo.gl/maps/HkLUg5WJ5E32</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3642,11 +3638,7 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/HkLUg5WJ5E32</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -3676,9 +3668,21 @@
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -3709,19 +3713,15 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3750,16 +3750,8 @@
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
@@ -3825,7 +3817,11 @@
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>5:30 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
@@ -3854,7 +3850,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>5:30 AM OFFICE LEAVE TIME</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3885,7 +3881,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -3920,7 +3916,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONDON OIL #130, OSHKOSH</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -3955,7 +3951,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>CONDON OIL #130, OSHKOSH</t>
+          <t>1424 S MAIN ST</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -3990,7 +3986,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>1424 S MAIN ST</t>
+          <t>https://goo.gl/maps/d7jG6yoK1sz</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -4025,7 +4021,7 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/d7jG6yoK1sz</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -4060,7 +4056,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -4095,7 +4091,7 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONDON OIL #140, OSHKOSH</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -4126,7 +4122,7 @@
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>CONDON OIL #140, OSHKOSH</t>
+          <t>811 MERRITT AVE</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -4169,7 +4165,7 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>811 MERRITT AVE</t>
+          <t>https://goo.gl/maps/qn7QFZkshX32</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -4198,11 +4194,7 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/qn7QFZkshX32</t>
-        </is>
-      </c>
+      <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
@@ -4228,9 +4220,21 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>Wht Camry, Equip</t>
+        </is>
+      </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
@@ -4257,17 +4261,17 @@
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>Wht Camry, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T74" t="inlineStr"/>
@@ -4296,12 +4300,12 @@
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -4316,45 +4320,6 @@
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>Madison</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/08-10-25 to 08-16-25 Milwaukee Schedule.xlsx
+++ b/08-10-25 to 08-16-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3213,14 +3213,10 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>w/ Carlie</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
@@ -3269,9 +3265,21 @@
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>w/ Carlie</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
@@ -3385,11 +3393,7 @@
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
@@ -3438,7 +3442,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3490,7 +3494,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1002, MILWAUKEE</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3545,7 +3549,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>6901 W EDGERTON AVENUE</t>
+          <t>AURORA OUTPATIENT RX #1002, MILWAUKEE</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3592,7 +3596,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HkLUg5WJ5E32</t>
+          <t>6901 W EDGERTON AVENUE</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3638,7 +3642,11 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/HkLUg5WJ5E32</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -3668,21 +3676,9 @@
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -3713,15 +3709,19 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3750,8 +3750,16 @@
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
@@ -3817,11 +3825,7 @@
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>5:30 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
@@ -3850,7 +3854,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:30 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3881,7 +3885,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -3916,7 +3920,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>CONDON OIL #130, OSHKOSH</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -3951,7 +3955,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>1424 S MAIN ST</t>
+          <t>CONDON OIL #130, OSHKOSH</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -3986,7 +3990,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/d7jG6yoK1sz</t>
+          <t>1424 S MAIN ST</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -4021,7 +4025,7 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/d7jG6yoK1sz</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -4056,7 +4060,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -4091,7 +4095,7 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>CONDON OIL #140, OSHKOSH</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -4122,7 +4126,7 @@
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>811 MERRITT AVE</t>
+          <t>CONDON OIL #140, OSHKOSH</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -4165,7 +4169,7 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/qn7QFZkshX32</t>
+          <t>811 MERRITT AVE</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -4194,7 +4198,11 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/qn7QFZkshX32</t>
+        </is>
+      </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
@@ -4220,21 +4228,9 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>Wht Camry, Equip</t>
-        </is>
-      </c>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
@@ -4261,17 +4257,17 @@
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Wht Camry, Equip</t>
         </is>
       </c>
       <c r="T74" t="inlineStr"/>
@@ -4300,12 +4296,12 @@
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -4320,6 +4316,45 @@
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/08-10-25 to 08-16-25 Milwaukee Schedule.xlsx
+++ b/08-10-25 to 08-16-25 Milwaukee Schedule.xlsx
@@ -1642,7 +1642,11 @@
           <t>Katherine</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
